--- a/dataset/Projeção folha - CMVC.xlsx
+++ b/dataset/Projeção folha - CMVC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Drives compartilhados\Programação\Projeção folha - CMVC\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Drives compartilhados\Programação\CMVC\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCAE870-D5D9-4238-B6C5-ABDB7FC37C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE547C92-8CAF-4AC4-97E2-30CD122935E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{61204F3E-D551-4067-860F-E86130131F20}"/>
   </bookViews>
@@ -654,13 +654,13 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -8272,10 +8272,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="72"/>
       <c r="C1" t="s">
         <v>27</v>
       </c>
@@ -15982,7 +15982,7 @@
         <v>431086.93</v>
       </c>
       <c r="D4" s="63">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="63">
         <v>0</v>
@@ -15995,7 +15995,7 @@
       </c>
       <c r="H4" s="63">
         <f>SUM(Tabela2416[[#This Row],[Salário Base Total (R$)]:[1/3 de Férias]])</f>
-        <v>461086.93</v>
+        <v>431086.93</v>
       </c>
       <c r="I4" s="64">
         <v>21887.26</v>
@@ -16023,7 +16023,7 @@
         <v>123209.24999999997</v>
       </c>
       <c r="D5" s="63">
-        <v>160117.55000000002</v>
+        <v>160117.54999999999</v>
       </c>
       <c r="E5" s="63">
         <v>962.24</v>
@@ -16036,7 +16036,7 @@
       </c>
       <c r="H5" s="63">
         <f>SUM(Tabela2416[[#This Row],[Salário Base Total (R$)]:[1/3 de Férias]])</f>
-        <v>287772.82</v>
+        <v>287772.81999999995</v>
       </c>
       <c r="I5" s="63">
         <v>26124.589999999993</v>
@@ -16228,7 +16228,7 @@
       </c>
       <c r="D10" s="66">
         <f t="shared" si="0"/>
-        <v>206513.58000000002</v>
+        <v>176513.58</v>
       </c>
       <c r="E10" s="66">
         <f t="shared" si="0"/>
@@ -16244,7 +16244,7 @@
       </c>
       <c r="H10" s="66">
         <f t="shared" si="0"/>
-        <v>1801187.65</v>
+        <v>1771187.65</v>
       </c>
       <c r="I10" s="66">
         <f t="shared" si="0"/>
@@ -16285,7 +16285,7 @@
       </c>
       <c r="D12" s="23">
         <f>H10-L10</f>
-        <v>1462528.52</v>
+        <v>1432528.52</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -21228,14 +21228,14 @@
       </c>
       <c r="H198" s="42">
         <f>H10</f>
-        <v>1801187.65</v>
+        <v>1771187.65</v>
       </c>
       <c r="J198" s="33">
         <v>45658</v>
       </c>
       <c r="K198" s="42">
         <f>H198-F10-B198</f>
-        <v>1710659.3946999998</v>
+        <v>1680659.3946999998</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
@@ -21607,26 +21607,26 @@
       </c>
       <c r="H211" s="48">
         <f>SUM(H198:H210)</f>
-        <v>25630100.680000003</v>
+        <v>25600100.680000003</v>
       </c>
       <c r="J211" s="44" t="s">
         <v>9</v>
       </c>
       <c r="K211" s="48">
         <f>SUM(K198:K210)</f>
-        <v>24334898.061100002</v>
+        <v>24304898.061100002</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="59"/>
       <c r="B214" s="59"/>
       <c r="C214" s="59"/>
-      <c r="E214" s="72" t="s">
+      <c r="E214" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="F214" s="72"/>
-      <c r="G214" s="72"/>
-      <c r="H214" s="72"/>
+      <c r="F214" s="73"/>
+      <c r="G214" s="73"/>
+      <c r="H214" s="73"/>
     </row>
     <row r="215" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="59"/>
@@ -21652,7 +21652,7 @@
       <c r="G216" s="59"/>
       <c r="H216" s="47">
         <f>$K$211</f>
-        <v>24334898.061100002</v>
+        <v>24304898.061100002</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -21663,11 +21663,11 @@
       <c r="G217" s="59"/>
       <c r="H217" s="60">
         <f>H216/H215</f>
-        <v>0.63831694112867332</v>
+        <v>0.63753002563859074</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I220" s="73"/>
+      <c r="I220" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/dataset/Projeção folha - CMVC.xlsx
+++ b/dataset/Projeção folha - CMVC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Drives compartilhados\Programação\CMVC\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE547C92-8CAF-4AC4-97E2-30CD122935E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C21996-C9A6-487B-BA9A-FDFCBB4A0543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{61204F3E-D551-4067-860F-E86130131F20}"/>
   </bookViews>
@@ -478,7 +478,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -655,6 +655,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8272,10 +8275,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="72"/>
+      <c r="B1" s="73"/>
       <c r="C1" t="s">
         <v>27</v>
       </c>
@@ -15900,8 +15903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB9D5A5-8680-4569-8AAE-74C2E06E49AF}">
   <dimension ref="A1:L220"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16022,7 +16025,7 @@
       <c r="C5" s="63">
         <v>123209.24999999997</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="72">
         <v>160117.54999999999</v>
       </c>
       <c r="E5" s="63">
@@ -21621,12 +21624,12 @@
       <c r="A214" s="59"/>
       <c r="B214" s="59"/>
       <c r="C214" s="59"/>
-      <c r="E214" s="73" t="s">
+      <c r="E214" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="F214" s="73"/>
-      <c r="G214" s="73"/>
-      <c r="H214" s="73"/>
+      <c r="F214" s="74"/>
+      <c r="G214" s="74"/>
+      <c r="H214" s="74"/>
     </row>
     <row r="215" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="59"/>

--- a/dataset/Projeção folha - CMVC.xlsx
+++ b/dataset/Projeção folha - CMVC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Drives compartilhados\Programação\CMVC\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C21996-C9A6-487B-BA9A-FDFCBB4A0543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592ACA33-A5FF-4F4A-8B51-0C757DFC83B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{61204F3E-D551-4067-860F-E86130131F20}"/>
   </bookViews>
@@ -15904,7 +15904,7 @@
   <dimension ref="A1:L220"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dataset/Projeção folha - CMVC.xlsx
+++ b/dataset/Projeção folha - CMVC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Drives compartilhados\Programação\CMVC\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592ACA33-A5FF-4F4A-8B51-0C757DFC83B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5960B7-2302-483A-92F1-CBA066482E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{61204F3E-D551-4067-860F-E86130131F20}"/>
   </bookViews>
